--- a/data/dynamic/integral_param.xlsx
+++ b/data/dynamic/integral_param.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>visc_melt</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>core radius</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -499,6 +504,9 @@
       </c>
       <c r="H2" t="n">
         <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1673.774320000183</v>
       </c>
     </row>
   </sheetData>
